--- a/tabular/Asia/Asian_SEA1b_miss.xlsx
+++ b/tabular/Asia/Asian_SEA1b_miss.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/Asia/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D782A-C575-E44D-91A1-745AC59E863A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15880"/>
+    <workbookView xWindow="14480" yWindow="1360" windowWidth="32420" windowHeight="24320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3243,7 +3249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4757,687 +4763,7 @@
     <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5700,6 +5026,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6024,14 +5358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O31" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="U1" activeCellId="1" sqref="U1 U1"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="X72" sqref="X71:X72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="18" max="18" width="14.5" customWidth="1"/>
     <col min="19" max="19" width="17.5" customWidth="1"/>
@@ -6052,7 +5386,7 @@
     <col min="34" max="34" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" thickBot="1">
+    <row r="1" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6150,7 +5484,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -6252,7 +5586,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -6354,7 +5688,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6456,7 +5790,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -6560,7 +5894,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6662,7 +5996,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -6761,7 +6095,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -6860,7 +6194,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -6959,7 +6293,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -7058,7 +6392,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -7157,7 +6491,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -7259,7 +6593,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -7358,7 +6692,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -7460,7 +6794,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>193</v>
       </c>
@@ -7559,7 +6893,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -7658,7 +6992,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -7757,7 +7091,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -7856,7 +7190,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -7955,7 +7289,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -8054,7 +7388,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -8153,7 +7487,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -8252,7 +7586,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -8351,7 +7685,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -8450,7 +7784,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -8549,7 +7883,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -8648,7 +7982,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -8747,7 +8081,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -8846,7 +8180,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>207</v>
       </c>
@@ -8945,7 +8279,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -9044,7 +8378,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -9143,7 +8477,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -9242,7 +8576,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -9341,7 +8675,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -9440,7 +8774,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>213</v>
       </c>
@@ -9539,7 +8873,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -9638,7 +8972,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -9737,7 +9071,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -9836,7 +9170,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>217</v>
       </c>
@@ -9935,7 +9269,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>218</v>
       </c>
@@ -10034,7 +9368,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -10133,7 +9467,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>220</v>
       </c>
@@ -10232,7 +9566,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>221</v>
       </c>
@@ -10331,7 +9665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>222</v>
       </c>
@@ -10430,7 +9764,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>223</v>
       </c>
@@ -10529,7 +9863,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -10628,7 +9962,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>306</v>
       </c>
@@ -10727,7 +10061,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>307</v>
       </c>
@@ -10826,7 +10160,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>308</v>
       </c>
@@ -10925,7 +10259,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>309</v>
       </c>
@@ -11029,7 +10363,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>310</v>
       </c>
@@ -11128,7 +10462,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>328</v>
       </c>
@@ -11230,7 +10564,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>329</v>
       </c>
@@ -11332,7 +10666,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>330</v>
       </c>
@@ -11434,7 +10768,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>331</v>
       </c>
@@ -11536,7 +10870,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>332</v>
       </c>
@@ -11638,7 +10972,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>333</v>
       </c>
@@ -11740,7 +11074,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>334</v>
       </c>
@@ -11842,7 +11176,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>335</v>
       </c>
@@ -11944,7 +11278,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>326</v>
       </c>
@@ -12043,7 +11377,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -12142,7 +11476,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -12241,7 +11575,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -12340,7 +11674,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -12439,7 +11773,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -12538,7 +11872,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -12637,7 +11971,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -12736,7 +12070,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -12835,7 +12169,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -12934,7 +12268,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -13033,7 +12367,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -13132,7 +12466,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -13231,7 +12565,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -13330,7 +12664,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -13429,7 +12763,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -13528,7 +12862,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -13627,7 +12961,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -13726,7 +13060,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -13825,7 +13159,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -13924,7 +13258,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -14023,7 +13357,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -14122,7 +13456,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -14221,7 +13555,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -14320,7 +13654,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -14419,7 +13753,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -14521,7 +13855,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -14625,7 +13959,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -14724,7 +14058,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -14823,7 +14157,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -14922,7 +14256,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -15021,7 +14355,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -15120,7 +14454,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -15221,7 +14555,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -15320,7 +14654,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -15422,7 +14756,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -15524,7 +14858,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>162</v>
       </c>
@@ -15626,7 +14960,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -15728,7 +15062,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -15830,7 +15164,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -15932,7 +15266,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -16034,7 +15368,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>227</v>
       </c>
@@ -16133,7 +15467,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>228</v>
       </c>
@@ -16232,7 +15566,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>229</v>
       </c>
@@ -16331,7 +15665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>230</v>
       </c>
@@ -16430,7 +15764,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>231</v>
       </c>
@@ -16529,7 +15863,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>232</v>
       </c>
@@ -16628,7 +15962,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -16727,7 +16061,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>234</v>
       </c>
@@ -16826,7 +16160,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>235</v>
       </c>
@@ -16925,7 +16259,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -17024,7 +16358,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>237</v>
       </c>
@@ -17123,7 +16457,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>238</v>
       </c>
@@ -17222,7 +16556,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>311</v>
       </c>
@@ -17321,7 +16655,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>312</v>
       </c>
@@ -17422,7 +16756,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>313</v>
       </c>
@@ -17521,7 +16855,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>314</v>
       </c>
@@ -17620,7 +16954,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>315</v>
       </c>
@@ -17719,7 +17053,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>316</v>
       </c>
@@ -17818,7 +17152,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -17917,7 +17251,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -18016,7 +17350,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -18115,7 +17449,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -18214,7 +17548,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -18315,7 +17649,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -18414,7 +17748,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -18515,7 +17849,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -18614,7 +17948,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -18713,7 +18047,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -18812,7 +18146,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -18911,7 +18245,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="130" spans="1:34">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -19010,7 +18344,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="131" spans="1:34">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -19109,7 +18443,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="132" spans="1:34">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -19208,7 +18542,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -19307,7 +18641,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="134" spans="1:34">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>35</v>
       </c>
@@ -19408,7 +18742,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="135" spans="1:34">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -19507,7 +18841,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="136" spans="1:34">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -19606,7 +18940,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="137" spans="1:34">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -19705,7 +19039,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="138" spans="1:34">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -19804,7 +19138,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="139" spans="1:34">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>40</v>
       </c>
@@ -19903,7 +19237,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="140" spans="1:34">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -20002,7 +19336,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="141" spans="1:34">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -20101,7 +19435,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="142" spans="1:34">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>43</v>
       </c>
@@ -20200,7 +19534,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="143" spans="1:34">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>44</v>
       </c>
@@ -20299,7 +19633,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="144" spans="1:34">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -20398,7 +19732,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="145" spans="1:35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -20497,7 +19831,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="146" spans="1:35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>47</v>
       </c>
@@ -20596,7 +19930,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>48</v>
       </c>
@@ -20695,7 +20029,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="148" spans="1:35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>49</v>
       </c>
@@ -20794,7 +20128,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="149" spans="1:35">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>50</v>
       </c>
@@ -20893,7 +20227,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="150" spans="1:35">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>51</v>
       </c>
@@ -20992,7 +20326,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="151" spans="1:35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>52</v>
       </c>
@@ -21091,7 +20425,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>53</v>
       </c>
@@ -21190,7 +20524,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="153" spans="1:35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>54</v>
       </c>
@@ -21289,7 +20623,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="154" spans="1:35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>55</v>
       </c>
@@ -21391,7 +20725,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="155" spans="1:35">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>60</v>
       </c>
@@ -21493,7 +20827,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="156" spans="1:35">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>61</v>
       </c>
@@ -21595,7 +20929,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="157" spans="1:35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>278</v>
       </c>
@@ -21694,7 +21028,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="158" spans="1:35">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>279</v>
       </c>
@@ -21791,7 +21125,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="159" spans="1:35">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>280</v>
       </c>
@@ -21890,7 +21224,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="1:35">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>281</v>
       </c>
@@ -21989,7 +21323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="161" spans="1:35">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -22088,7 +21422,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="162" spans="1:35">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>283</v>
       </c>
@@ -22187,7 +21521,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="163" spans="1:35">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>284</v>
       </c>
@@ -22289,7 +21623,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="164" spans="1:35">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>285</v>
       </c>
@@ -22388,7 +21722,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="165" spans="1:35">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>286</v>
       </c>
@@ -22487,7 +21821,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="166" spans="1:35">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>287</v>
       </c>
@@ -22586,7 +21920,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="167" spans="1:35">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>288</v>
       </c>
@@ -22685,7 +22019,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="168" spans="1:35">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>289</v>
       </c>
@@ -22784,7 +22118,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="169" spans="1:35">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>290</v>
       </c>
@@ -22883,7 +22217,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="170" spans="1:35">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>291</v>
       </c>
@@ -22982,7 +22316,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="171" spans="1:35">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>292</v>
       </c>
@@ -23081,7 +22415,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="172" spans="1:35">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>293</v>
       </c>
@@ -23180,7 +22514,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="173" spans="1:35">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>294</v>
       </c>
@@ -23279,7 +22613,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="174" spans="1:35">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>295</v>
       </c>
@@ -23378,7 +22712,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="175" spans="1:35">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>296</v>
       </c>
@@ -23477,7 +22811,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="176" spans="1:35">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>297</v>
       </c>
@@ -23576,7 +22910,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="177" spans="1:35">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>298</v>
       </c>
@@ -23675,7 +23009,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="178" spans="1:35">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>299</v>
       </c>
@@ -23774,7 +23108,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="179" spans="1:35">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>300</v>
       </c>
@@ -23873,7 +23207,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="180" spans="1:35">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>301</v>
       </c>
@@ -23972,7 +23306,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="181" spans="1:35">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>336</v>
       </c>
@@ -24074,7 +23408,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="182" spans="1:35">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>122</v>
       </c>
@@ -24176,7 +23510,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="183" spans="1:35">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>123</v>
       </c>
@@ -24278,7 +23612,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="184" spans="1:35">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>124</v>
       </c>
@@ -24380,7 +23714,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="185" spans="1:35">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>125</v>
       </c>
@@ -24482,7 +23816,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="186" spans="1:35">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -24584,7 +23918,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="187" spans="1:35">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>127</v>
       </c>
@@ -24686,7 +24020,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="188" spans="1:35">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>128</v>
       </c>
@@ -24788,7 +24122,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="189" spans="1:35">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>129</v>
       </c>
@@ -24890,7 +24224,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="190" spans="1:35">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>130</v>
       </c>
@@ -24992,7 +24326,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="191" spans="1:35">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>131</v>
       </c>
@@ -25094,7 +24428,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="192" spans="1:35">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -25196,7 +24530,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="193" spans="1:35">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>133</v>
       </c>
@@ -25298,7 +24632,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="194" spans="1:35">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>134</v>
       </c>
@@ -25400,7 +24734,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="195" spans="1:35">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>135</v>
       </c>
@@ -25502,7 +24836,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="196" spans="1:35">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>136</v>
       </c>
@@ -25604,7 +24938,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="197" spans="1:35">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>137</v>
       </c>
@@ -25706,7 +25040,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="198" spans="1:35">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>138</v>
       </c>
@@ -25808,7 +25142,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="199" spans="1:35">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>139</v>
       </c>
@@ -25910,7 +25244,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="200" spans="1:35">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>140</v>
       </c>
@@ -26012,7 +25346,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="201" spans="1:35">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>141</v>
       </c>
@@ -26114,7 +25448,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="202" spans="1:35">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>142</v>
       </c>
@@ -26216,7 +25550,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="203" spans="1:35">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>143</v>
       </c>
@@ -26318,7 +25652,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="204" spans="1:35">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>144</v>
       </c>
@@ -26420,7 +25754,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="205" spans="1:35">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>145</v>
       </c>
@@ -26522,7 +25856,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="206" spans="1:35">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>146</v>
       </c>
@@ -26624,7 +25958,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="207" spans="1:35">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>147</v>
       </c>
@@ -26726,7 +26060,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="208" spans="1:35">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>148</v>
       </c>
@@ -26828,7 +26162,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="209" spans="1:35">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>149</v>
       </c>
@@ -26930,7 +26264,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="210" spans="1:35">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>150</v>
       </c>
@@ -27032,7 +26366,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="211" spans="1:35">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>151</v>
       </c>
@@ -27134,7 +26468,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="212" spans="1:35">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>152</v>
       </c>
@@ -27236,7 +26570,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="213" spans="1:35">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>153</v>
       </c>
@@ -27338,7 +26672,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="214" spans="1:35">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>154</v>
       </c>
@@ -27440,7 +26774,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="215" spans="1:35">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>155</v>
       </c>
@@ -27542,7 +26876,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="216" spans="1:35">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>156</v>
       </c>
@@ -27644,7 +26978,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="217" spans="1:35">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>157</v>
       </c>
@@ -27746,7 +27080,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="218" spans="1:35">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>158</v>
       </c>
@@ -27848,7 +27182,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="219" spans="1:35">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -27947,7 +27281,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="220" spans="1:35">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>240</v>
       </c>
@@ -28046,7 +27380,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="221" spans="1:35">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -28145,7 +27479,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="222" spans="1:35">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>242</v>
       </c>
@@ -28244,7 +27578,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="223" spans="1:35">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>243</v>
       </c>
@@ -28343,7 +27677,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="224" spans="1:35">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -28442,7 +27776,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="225" spans="1:35">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>245</v>
       </c>
@@ -28541,7 +27875,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="226" spans="1:35">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>302</v>
       </c>
@@ -28640,7 +27974,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="227" spans="1:35">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>303</v>
       </c>
@@ -28739,7 +28073,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="228" spans="1:35">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>304</v>
       </c>
@@ -28838,7 +28172,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="229" spans="1:35">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -28940,7 +28274,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="230" spans="1:35">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>59</v>
       </c>
@@ -29042,7 +28376,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="231" spans="1:35">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>62</v>
       </c>
@@ -29144,7 +28478,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="232" spans="1:35">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -29246,7 +28580,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="233" spans="1:35">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>64</v>
       </c>
@@ -29348,7 +28682,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="234" spans="1:35">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>65</v>
       </c>
@@ -29450,7 +28784,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="235" spans="1:35">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>66</v>
       </c>
@@ -29552,7 +28886,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="236" spans="1:35">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>159</v>
       </c>
@@ -29651,7 +28985,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="237" spans="1:35">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>246</v>
       </c>
@@ -29750,7 +29084,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="238" spans="1:35">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>247</v>
       </c>
@@ -29849,7 +29183,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="239" spans="1:35">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>248</v>
       </c>
@@ -29948,7 +29282,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="240" spans="1:35">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -30047,7 +29381,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="241" spans="1:34">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>250</v>
       </c>
@@ -30146,7 +29480,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="242" spans="1:34">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>251</v>
       </c>
@@ -30245,7 +29579,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="243" spans="1:34">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>252</v>
       </c>
@@ -30344,7 +29678,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="244" spans="1:34">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>253</v>
       </c>
@@ -30443,7 +29777,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="245" spans="1:34">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>254</v>
       </c>
@@ -30542,7 +29876,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="246" spans="1:34">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>255</v>
       </c>
@@ -30641,7 +29975,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="247" spans="1:34">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -30740,7 +30074,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="248" spans="1:34">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -30839,7 +30173,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="249" spans="1:34">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -30938,7 +30272,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="250" spans="1:34">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>259</v>
       </c>
@@ -31037,7 +30371,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="251" spans="1:34">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -31136,7 +30470,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="252" spans="1:34">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>261</v>
       </c>
@@ -31235,7 +30569,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="253" spans="1:34">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>262</v>
       </c>
@@ -31334,7 +30668,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="254" spans="1:34">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>263</v>
       </c>
@@ -31433,7 +30767,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="255" spans="1:34">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -31532,7 +30866,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="256" spans="1:34">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>265</v>
       </c>
@@ -31631,7 +30965,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="257" spans="1:34">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>266</v>
       </c>
@@ -31730,7 +31064,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="258" spans="1:34">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>267</v>
       </c>
@@ -31829,7 +31163,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="259" spans="1:34">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>268</v>
       </c>
@@ -31928,7 +31262,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="260" spans="1:34">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>269</v>
       </c>
@@ -32027,7 +31361,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="261" spans="1:34">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>270</v>
       </c>
@@ -32126,7 +31460,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="262" spans="1:34">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>271</v>
       </c>
@@ -32225,7 +31559,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="263" spans="1:34">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>272</v>
       </c>
@@ -32324,7 +31658,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="264" spans="1:34">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -32423,7 +31757,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="265" spans="1:34">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>274</v>
       </c>
@@ -32522,7 +31856,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="266" spans="1:34">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>275</v>
       </c>
@@ -32621,7 +31955,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="267" spans="1:34">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>276</v>
       </c>
@@ -32720,7 +32054,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="268" spans="1:34">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -32819,7 +32153,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="269" spans="1:34">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>317</v>
       </c>
@@ -32918,7 +32252,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="270" spans="1:34">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>318</v>
       </c>
@@ -33017,7 +32351,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="271" spans="1:34">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>319</v>
       </c>
@@ -33116,7 +32450,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="272" spans="1:34">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>320</v>
       </c>
@@ -33215,7 +32549,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="273" spans="1:35">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>321</v>
       </c>
@@ -33314,7 +32648,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="274" spans="1:35">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>322</v>
       </c>
@@ -33413,7 +32747,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="275" spans="1:35">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>323</v>
       </c>
@@ -33512,7 +32846,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="276" spans="1:35">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>324</v>
       </c>
@@ -33611,7 +32945,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="277" spans="1:35">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>325</v>
       </c>
@@ -33715,7 +33049,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="278" spans="1:35">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>74</v>
       </c>
@@ -33817,7 +33151,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="279" spans="1:35">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>102</v>
       </c>
@@ -33916,7 +33250,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="280" spans="1:35">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>103</v>
       </c>
@@ -34015,7 +33349,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="281" spans="1:35">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>104</v>
       </c>
@@ -34114,7 +33448,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="282" spans="1:35">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>105</v>
       </c>
@@ -34213,7 +33547,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="283" spans="1:35">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>106</v>
       </c>
@@ -34312,7 +33646,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="284" spans="1:35">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>107</v>
       </c>
@@ -34411,7 +33745,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="285" spans="1:35">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -34515,7 +33849,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="286" spans="1:35">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>179</v>
       </c>
@@ -34617,7 +33951,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="287" spans="1:35">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>182</v>
       </c>
@@ -34719,7 +34053,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="288" spans="1:35">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>187</v>
       </c>
@@ -34821,7 +34155,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="289" spans="1:35">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>188</v>
       </c>
@@ -34923,7 +34257,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="290" spans="1:35">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -35025,7 +34359,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="291" spans="1:35">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>172</v>
       </c>
@@ -35127,7 +34461,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="292" spans="1:35">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>173</v>
       </c>
@@ -35229,7 +34563,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="293" spans="1:35">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>174</v>
       </c>
@@ -35331,7 +34665,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="294" spans="1:35">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>175</v>
       </c>
@@ -35433,7 +34767,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:35">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>176</v>
       </c>
@@ -35535,7 +34869,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:35">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>177</v>
       </c>
@@ -35637,7 +34971,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="297" spans="1:35">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>178</v>
       </c>
@@ -35739,7 +35073,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="298" spans="1:35">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>180</v>
       </c>
@@ -35841,7 +35175,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="299" spans="1:35">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>181</v>
       </c>
@@ -35943,7 +35277,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="300" spans="1:35">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>183</v>
       </c>
@@ -36045,7 +35379,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="301" spans="1:35">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>184</v>
       </c>
@@ -36147,7 +35481,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="302" spans="1:35">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>185</v>
       </c>
@@ -36249,7 +35583,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="303" spans="1:35">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>189</v>
       </c>
@@ -36351,7 +35685,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="304" spans="1:35">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>190</v>
       </c>
@@ -36453,7 +35787,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="305" spans="1:35">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>191</v>
       </c>
@@ -36555,7 +35889,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="306" spans="1:35">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>186</v>
       </c>
@@ -36657,7 +35991,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="307" spans="1:35">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>76</v>
       </c>
@@ -36756,7 +36090,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="308" spans="1:35">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>77</v>
       </c>
@@ -36855,7 +36189,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="309" spans="1:35">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>113</v>
       </c>
@@ -36954,7 +36288,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="310" spans="1:35">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>114</v>
       </c>
@@ -37053,7 +36387,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="311" spans="1:35">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>115</v>
       </c>
@@ -37152,7 +36486,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="312" spans="1:35">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>116</v>
       </c>
@@ -37251,7 +36585,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="313" spans="1:35">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>117</v>
       </c>
@@ -37350,7 +36684,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="314" spans="1:35">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -37449,7 +36783,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="315" spans="1:35">
+    <row r="315" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>72</v>
       </c>
@@ -37548,7 +36882,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="316" spans="1:35">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -37650,7 +36984,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="317" spans="1:35">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>226</v>
       </c>
@@ -37749,7 +37083,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="318" spans="1:35">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>67</v>
       </c>
@@ -37848,7 +37182,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="319" spans="1:35">
+    <row r="319" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>68</v>
       </c>
@@ -37948,110 +37282,110 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P319">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P319">
     <sortCondition descending="1" ref="K1"/>
   </sortState>
   <conditionalFormatting sqref="R1:AH152 R320:AH1048576 S153:S319 U153:U157 U159:U319 W153:W319 Y153:Y158 AA153:AA158 Y181 Y269:Y278 Y283 Y285:Y313 AA229:AA236 AC153:AF319 AH153:AH319 AA181:AA218">
-    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="63" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="64" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB153">
-    <cfRule type="cellIs" dxfId="91" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="61" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="62" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB154">
-    <cfRule type="cellIs" dxfId="89" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="59" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="60" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB155">
-    <cfRule type="cellIs" dxfId="87" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="57" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="58" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB156">
-    <cfRule type="cellIs" dxfId="85" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="55" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="56" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y159:Y180">
-    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA159:AA180">
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y219:Y268 Y183 Y185 Y187 Y189 Y191 Y193 Y195 Y197 Y199 Y201 Y203 Y205 Y207 Y209 Y211 Y213 Y215 Y217">
-    <cfRule type="cellIs" dxfId="77" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y279:Y282">
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y284">
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y314:Y319">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA219:AA228">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y218 Y182 Y184 Y186 Y188 Y190 Y192 Y194 Y196 Y198 Y200 Y202 Y204 Y206 Y208 Y210 Y212 Y214 Y216">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
